--- a/df_1/df_1_13.xlsx
+++ b/df_1/df_1_13.xlsx
@@ -641,347 +641,347 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.7884 %</t>
+          <t>1,7884</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.1708 %</t>
+          <t>0,1708</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5451 %</t>
+          <t>0,5451</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.7392 %</t>
+          <t>0,7392</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.0631 %</t>
+          <t>1,0631</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4542 %</t>
+          <t>1,4542</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.4172 %</t>
+          <t>2,4172</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.5151 %</t>
+          <t>1,5151</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.9524 %</t>
+          <t>0,9524</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.3799 %</t>
+          <t>1,3799</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.116 %</t>
+          <t>1,116</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.6663 %</t>
+          <t>0,6663</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.9529 %</t>
+          <t>0,9529</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.942 %</t>
+          <t>0,942</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.269 %</t>
+          <t>1,269</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.3055 %</t>
+          <t>1,3055</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.9944 %</t>
+          <t>1,9944</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.3933 %</t>
+          <t>1,3933</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.4699 %</t>
+          <t>1,4699</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.4394 %</t>
+          <t>1,4394</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.4068 %</t>
+          <t>1,4068</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.3535 %</t>
+          <t>1,3535</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.6153 %</t>
+          <t>1,6153</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.3324 %</t>
+          <t>1,3324</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.3589 %</t>
+          <t>1,3589</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1.1686 %</t>
+          <t>1,1686</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.3967 %</t>
+          <t>1,3967</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.3495 %</t>
+          <t>1,3495</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.295 %</t>
+          <t>1,295</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.9784 %</t>
+          <t>0,9784</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.8542 %</t>
+          <t>0,8542</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.5517 %</t>
+          <t>0,5517</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6296 %</t>
+          <t>0,6296</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.3768 %</t>
+          <t>0,3768</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.4309 %</t>
+          <t>0,4309</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.4114 %</t>
+          <t>0,4114</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.3927 %</t>
+          <t>0,3927</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.7635 %</t>
+          <t>0,7635</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.3512 %</t>
+          <t>0,3512</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.6026 %</t>
+          <t>0,6026</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.391 %</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.5407 %</t>
+          <t>0,5407</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.6067 %</t>
+          <t>0,6067</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.456 %</t>
+          <t>0,456</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.305 %</t>
+          <t>0,305</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.3327 %</t>
+          <t>0,3327</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.3882 %</t>
+          <t>0,3882</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.4422 %</t>
+          <t>0,4422</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.4609 %</t>
+          <t>0,4609</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.4517 %</t>
+          <t>0,4517</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.3521 %</t>
+          <t>0,3521</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.4682 %</t>
+          <t>0,4682</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.354 %</t>
+          <t>0,354</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.367 %</t>
+          <t>0,367</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.4413 %</t>
+          <t>0,4413</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.4301 %</t>
+          <t>0,4301</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.4392 %</t>
+          <t>0,4392</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.4985 %</t>
+          <t>0,4985</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.4175 %</t>
+          <t>0,4175</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.4823 %</t>
+          <t>0,4823</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.8432 %</t>
+          <t>0,8432</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.505 %</t>
+          <t>0,505</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.4229 %</t>
+          <t>0,4229</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.4795 %</t>
+          <t>0,4795</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.4903 %</t>
+          <t>0,4903</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.6628 %</t>
+          <t>0,6628</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.1781 %</t>
+          <t>0,1781</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.1679 %</t>
+          <t>0,1679</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.119 %</t>
+          <t>0,119</t>
         </is>
       </c>
     </row>
@@ -993,217 +993,217 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3.212 %</t>
+          <t>3,212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5442 %</t>
+          <t>0,5442</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4558 %</t>
+          <t>0,4558</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4797 %</t>
+          <t>0,4797</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4569 %</t>
+          <t>0,4569</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4091 %</t>
+          <t>0,4091</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.5656 %</t>
+          <t>0,5656</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6476 %</t>
+          <t>0,6476</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7322 %</t>
+          <t>0,7322</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.5059 %</t>
+          <t>0,5059</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.4296 %</t>
+          <t>0,4296</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5583 %</t>
+          <t>0,5583</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.4888 %</t>
+          <t>0,4888</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.4854 %</t>
+          <t>0,4854</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.4563 %</t>
+          <t>0,4563</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.5234 %</t>
+          <t>0,5234</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.5058 %</t>
+          <t>0,5058</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.5059 %</t>
+          <t>0,5059</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.531 %</t>
+          <t>0,531</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.6348 %</t>
+          <t>0,6348</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.0302 %</t>
+          <t>1,0302</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.1172 %</t>
+          <t>1,1172</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.3515 %</t>
+          <t>1,3515</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.3576 %</t>
+          <t>1,3576</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.5504 %</t>
+          <t>1,5504</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.0039 %</t>
+          <t>1,0039</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.1461 %</t>
+          <t>1,1461</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.0751 %</t>
+          <t>1,0751</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.4791 %</t>
+          <t>0,4791</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.4733 %</t>
+          <t>0,4733</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.4411 %</t>
+          <t>0,4411</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.4556 %</t>
+          <t>0,4556</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.4372 %</t>
+          <t>0,4372</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5165 %</t>
+          <t>0,5165</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.4302 %</t>
+          <t>0,4302</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.4153 %</t>
+          <t>0,4153</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.417 %</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4336 %</t>
+          <t>0,4336</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.4128 %</t>
+          <t>0,4128</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.4422 %</t>
+          <t>0,4422</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.4211 %</t>
+          <t>0,4211</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.4288 %</t>
+          <t>0,4288</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4535 %</t>
+          <t>0,4535</t>
         </is>
       </c>
     </row>
@@ -1215,187 +1215,187 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4.4275 %</t>
+          <t>4,4275</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0295 %</t>
+          <t>1,0295</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0738 %</t>
+          <t>1,0738</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.3031 %</t>
+          <t>0,3031</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1625 %</t>
+          <t>0,1625</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1155 %</t>
+          <t>0,1155</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.1028 %</t>
+          <t>0,1028</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.078 %</t>
+          <t>0,078</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0448 %</t>
+          <t>0,0448</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0402 %</t>
+          <t>0,0402</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0354 %</t>
+          <t>0,0354</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0438 %</t>
+          <t>0,0438</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0507 %</t>
+          <t>0,0507</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0671 %</t>
+          <t>0,0671</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.063 %</t>
+          <t>0,063</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.1175 %</t>
+          <t>0,1175</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.2054 %</t>
+          <t>0,2054</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.4955 %</t>
+          <t>0,4955</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.8103 %</t>
+          <t>0,8103</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.5904 %</t>
+          <t>0,5904</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.3835 %</t>
+          <t>0,3835</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.3483 %</t>
+          <t>0,3483</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.2921 %</t>
+          <t>0,2921</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.2987 %</t>
+          <t>0,2987</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.282 %</t>
+          <t>0,282</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.3154 %</t>
+          <t>0,3154</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2909 %</t>
+          <t>0,2909</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.5816 %</t>
+          <t>0,5816</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1.9095 %</t>
+          <t>1,9095</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2.8851 %</t>
+          <t>2,8851</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>3.5796 %</t>
+          <t>3,5796</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>5.8771 %</t>
+          <t>5,8771</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>3.0332 %</t>
+          <t>3,0332</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>5.7642 %</t>
+          <t>5,7642</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>8.3395 %</t>
+          <t>8,3395</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3.1633 %</t>
+          <t>3,1633</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2.2191 %</t>
+          <t>2,2191</t>
         </is>
       </c>
     </row>
